--- a/deploy_scheduling.xlsx
+++ b/deploy_scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25100" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24860" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -53,27 +53,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工作項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. 相關套件安裝 (Anaconda, OpenCV, TensorFlow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b. 程式修改與測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同運算架構(改為numpy)與方法必須測試，可能會讓完成時間往後遞延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>開發時使用Python 2.7, 考量使用tensorflow與未來程式的維護性, 部署環境需改為python 3.6, 開發程式需調整並測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a. 相關套件安裝 (Anaconda, OpenCV, TensorFlow)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b. 程式修改與測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同運算架構(改為numpy)與方法必須測試，可能會讓完成時間往後遞延</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -531,10 +531,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="3" spans="1:4" ht="45">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="4" spans="1:4" ht="60">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>42775</v>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>42776</v>
